--- a/Code/Results/Cases/Case_6_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_34/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.14350722803448</v>
+        <v>2.766075824734571</v>
       </c>
       <c r="C2">
-        <v>1.178844673645301</v>
+        <v>0.6935696687066581</v>
       </c>
       <c r="D2">
-        <v>0.00698828725045253</v>
+        <v>0.02366419422781973</v>
       </c>
       <c r="E2">
-        <v>1.474778833231142</v>
+        <v>1.445944237492782</v>
       </c>
       <c r="F2">
-        <v>1.714092550285656</v>
+        <v>0.6351620925894679</v>
       </c>
       <c r="G2">
-        <v>0.0007539836156979705</v>
+        <v>0.0007668456388605915</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4706773476428801</v>
+        <v>0.5562123999111108</v>
       </c>
       <c r="O2">
-        <v>1.327098136922601</v>
+        <v>1.800833773841987</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.566183993463369</v>
+        <v>2.40177832543344</v>
       </c>
       <c r="C3">
-        <v>1.015920976767575</v>
+        <v>0.6088615173242147</v>
       </c>
       <c r="D3">
-        <v>0.007691655324913782</v>
+        <v>0.02117902750486778</v>
       </c>
       <c r="E3">
-        <v>1.256438016091366</v>
+        <v>1.239906624912422</v>
       </c>
       <c r="F3">
-        <v>1.502446439483364</v>
+        <v>0.5653377260186474</v>
       </c>
       <c r="G3">
-        <v>0.0007630267884154371</v>
+        <v>0.0007718564862976923</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5187829557980734</v>
+        <v>0.5717217675983619</v>
       </c>
       <c r="O3">
-        <v>1.166217185895405</v>
+        <v>1.616335108191691</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.217617698628828</v>
+        <v>2.17897888455758</v>
       </c>
       <c r="C4">
-        <v>0.9175028263111358</v>
+        <v>0.5569570407547246</v>
       </c>
       <c r="D4">
-        <v>0.008217983098059989</v>
+        <v>0.0196497225301755</v>
       </c>
       <c r="E4">
-        <v>1.126481423933441</v>
+        <v>1.1159859786748</v>
       </c>
       <c r="F4">
-        <v>1.377629826797389</v>
+        <v>0.5239956972595365</v>
       </c>
       <c r="G4">
-        <v>0.0007686898926411354</v>
+        <v>0.0007750198867462512</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.549915153026344</v>
+        <v>0.58222997129063</v>
       </c>
       <c r="O4">
-        <v>1.071671404776126</v>
+        <v>1.508111700071169</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.076817238794263</v>
+        <v>2.088355057200317</v>
       </c>
       <c r="C5">
-        <v>0.8777304065780811</v>
+        <v>0.5358209189051024</v>
       </c>
       <c r="D5">
-        <v>0.008453379607542999</v>
+        <v>0.01902552544517278</v>
       </c>
       <c r="E5">
-        <v>1.074382196735982</v>
+        <v>1.066037820414053</v>
       </c>
       <c r="F5">
-        <v>1.3278962779316</v>
+        <v>0.5074979187774389</v>
       </c>
       <c r="G5">
-        <v>0.0007710281498618463</v>
+        <v>0.000776331587236995</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5629779801435468</v>
+        <v>0.5867501311130781</v>
       </c>
       <c r="O5">
-        <v>1.034076370126527</v>
+        <v>1.465167673210971</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.05350587778122</v>
+        <v>2.073315767293764</v>
       </c>
       <c r="C6">
-        <v>0.8711444039209653</v>
+        <v>0.5323118939672042</v>
       </c>
       <c r="D6">
-        <v>0.008493654247667237</v>
+        <v>0.01892181442550722</v>
       </c>
       <c r="E6">
-        <v>1.065778391761455</v>
+        <v>1.057774459947751</v>
       </c>
       <c r="F6">
-        <v>1.319701935885647</v>
+        <v>0.504778591034075</v>
       </c>
       <c r="G6">
-        <v>0.0007714183311034877</v>
+        <v>0.0007765507803558975</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5651690957580264</v>
+        <v>0.5875147994057031</v>
       </c>
       <c r="O6">
-        <v>1.02788650812515</v>
+        <v>1.458103591232714</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.215714084177932</v>
+        <v>2.177756083411964</v>
       </c>
       <c r="C7">
-        <v>0.9169651807230821</v>
+        <v>0.5566719438162409</v>
       </c>
       <c r="D7">
-        <v>0.008221076537086702</v>
+        <v>0.01964130857593105</v>
       </c>
       <c r="E7">
-        <v>1.125775530179453</v>
+        <v>1.115310257103971</v>
       </c>
       <c r="F7">
-        <v>1.376954726961515</v>
+        <v>0.5237718326300893</v>
       </c>
       <c r="G7">
-        <v>0.0007687213003510665</v>
+        <v>0.0007750374843990557</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5500898306460797</v>
+        <v>0.5822899806464434</v>
       </c>
       <c r="O7">
-        <v>1.071160770998276</v>
+        <v>1.507527999000473</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.94306375537667</v>
+        <v>2.640250154873627</v>
       </c>
       <c r="C8">
-        <v>1.122286199043685</v>
+        <v>0.6643329365417401</v>
       </c>
       <c r="D8">
-        <v>0.007209370913903612</v>
+        <v>0.02280792460668835</v>
       </c>
       <c r="E8">
-        <v>1.39853130848519</v>
+        <v>1.374302274697115</v>
       </c>
       <c r="F8">
-        <v>1.639948686948927</v>
+        <v>0.6107469108418897</v>
       </c>
       <c r="G8">
-        <v>0.0007570804717527956</v>
+        <v>0.0007685558694685088</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4869172371947172</v>
+        <v>0.5613494090822684</v>
       </c>
       <c r="O8">
-        <v>1.270663158652397</v>
+        <v>1.736097088462628</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.428941495015977</v>
+        <v>3.556828783312994</v>
       </c>
       <c r="C9">
-        <v>1.541563905425051</v>
+        <v>0.8768823404829789</v>
       </c>
       <c r="D9">
-        <v>0.006126776616325103</v>
+        <v>0.02899840950839661</v>
       </c>
       <c r="E9">
-        <v>1.97519008763183</v>
+        <v>1.907774086398788</v>
       </c>
       <c r="F9">
-        <v>2.204745418898753</v>
+        <v>0.7951869352119019</v>
       </c>
       <c r="G9">
-        <v>0.0007349904885648662</v>
+        <v>0.0007564949147425843</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3769729673961848</v>
+        <v>0.5285796361901873</v>
       </c>
       <c r="O9">
-        <v>1.702327048051728</v>
+        <v>2.23008865042047</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.577634080847247</v>
+        <v>4.24022409925584</v>
       </c>
       <c r="C10">
-        <v>1.866046203857991</v>
+        <v>1.034827047540517</v>
       </c>
       <c r="D10">
-        <v>0.006140151042371755</v>
+        <v>0.03354828273404564</v>
       </c>
       <c r="E10">
-        <v>2.439945480857276</v>
+        <v>2.323337497430771</v>
       </c>
       <c r="F10">
-        <v>2.663230115774155</v>
+        <v>0.9418197442609255</v>
       </c>
       <c r="G10">
-        <v>0.000718981555075148</v>
+        <v>0.0007479702662119451</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3067763714289633</v>
+        <v>0.5102778712968856</v>
       </c>
       <c r="O10">
-        <v>2.055318637935997</v>
+        <v>2.629545654824454</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.118317606976461</v>
+        <v>4.554326490604694</v>
       </c>
       <c r="C11">
-        <v>2.018991475936048</v>
+        <v>1.107302658041846</v>
       </c>
       <c r="D11">
-        <v>0.006397943772913806</v>
+        <v>0.03562227541059571</v>
       </c>
       <c r="E11">
-        <v>2.664833308552232</v>
+        <v>2.519627821551396</v>
       </c>
       <c r="F11">
-        <v>2.885026321186416</v>
+        <v>1.011609173056428</v>
       </c>
       <c r="G11">
-        <v>0.0007116828940548162</v>
+        <v>0.0007441503156697329</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2777152484127079</v>
+        <v>0.503382420255889</v>
       </c>
       <c r="O11">
-        <v>2.226793257924143</v>
+        <v>2.821365197190516</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.326259543172</v>
+        <v>4.673829337696986</v>
       </c>
       <c r="C12">
-        <v>2.07785856500044</v>
+        <v>1.134859493486772</v>
       </c>
       <c r="D12">
-        <v>0.006540035619291729</v>
+        <v>0.03640862397074329</v>
       </c>
       <c r="E12">
-        <v>2.752419002072799</v>
+        <v>2.595207259745806</v>
       </c>
       <c r="F12">
-        <v>2.971306438150179</v>
+        <v>1.038542902274841</v>
       </c>
       <c r="G12">
-        <v>0.0007089101576999504</v>
+        <v>0.0007427107301547542</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2671832342648912</v>
+        <v>0.5009933608090975</v>
       </c>
       <c r="O12">
-        <v>2.29361486334453</v>
+        <v>2.895659445373582</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.281322709001699</v>
+        <v>4.648065750147339</v>
       </c>
       <c r="C13">
-        <v>2.065134913761824</v>
+        <v>1.128919279874935</v>
       </c>
       <c r="D13">
-        <v>0.006507302394066272</v>
+        <v>0.03623921998698165</v>
       </c>
       <c r="E13">
-        <v>2.733438932744718</v>
+        <v>2.578870728508463</v>
       </c>
       <c r="F13">
-        <v>2.952615573219447</v>
+        <v>1.032718669950626</v>
       </c>
       <c r="G13">
-        <v>0.0007095078308777989</v>
+        <v>0.0007430204855868364</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2694293846382365</v>
+        <v>0.5014977307945472</v>
       </c>
       <c r="O13">
-        <v>2.279133864549749</v>
+        <v>2.879581692973062</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.135357257093631</v>
+        <v>4.564146268261425</v>
       </c>
       <c r="C14">
-        <v>2.023814285618414</v>
+        <v>1.109567397300083</v>
       </c>
       <c r="D14">
-        <v>0.006408687978366245</v>
+        <v>0.035686946971488</v>
       </c>
       <c r="E14">
-        <v>2.671987208824305</v>
+        <v>2.525819472960691</v>
       </c>
       <c r="F14">
-        <v>2.892076229425015</v>
+        <v>1.013814504422228</v>
       </c>
       <c r="G14">
-        <v>0.0007114550000482068</v>
+        <v>0.0007440317493880345</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2768389130982314</v>
+        <v>0.5031813198843267</v>
       </c>
       <c r="O14">
-        <v>2.232250807696531</v>
+        <v>2.827442985638669</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.046384972066221</v>
+        <v>4.512819004847529</v>
       </c>
       <c r="C15">
-        <v>1.998633990043231</v>
+        <v>1.097729080993531</v>
       </c>
       <c r="D15">
-        <v>0.006354354514133576</v>
+        <v>0.03534880236537674</v>
       </c>
       <c r="E15">
-        <v>2.63467860755344</v>
+        <v>2.493493290864308</v>
       </c>
       <c r="F15">
-        <v>2.855305281632099</v>
+        <v>1.002303020489009</v>
       </c>
       <c r="G15">
-        <v>0.0007126463215056888</v>
+        <v>0.0007446520384538977</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.2814410100324309</v>
+        <v>0.5042420055257253</v>
       </c>
       <c r="O15">
-        <v>2.203790053243324</v>
+        <v>2.795728660701144</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.542711888450583</v>
+        <v>4.219769543266636</v>
       </c>
       <c r="C16">
-        <v>1.856173046700007</v>
+        <v>1.030104997953288</v>
       </c>
       <c r="D16">
-        <v>0.006129033043524856</v>
+        <v>0.03341285727058363</v>
       </c>
       <c r="E16">
-        <v>2.425558814246983</v>
+        <v>2.310672268165646</v>
       </c>
       <c r="F16">
-        <v>2.649032936674729</v>
+        <v>0.9373260975693825</v>
       </c>
       <c r="G16">
-        <v>0.0007194576828442439</v>
+        <v>0.0007482209603067192</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3087382320958447</v>
+        <v>0.5107586538619486</v>
       </c>
       <c r="O16">
-        <v>2.044357675143615</v>
+        <v>2.61722998698599</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.238754776652854</v>
+        <v>4.040883212277947</v>
       </c>
       <c r="C17">
-        <v>1.770263591125229</v>
+        <v>0.988794820117505</v>
       </c>
       <c r="D17">
-        <v>0.006060584156893256</v>
+        <v>0.03222654104937561</v>
       </c>
       <c r="E17">
-        <v>2.301034138905422</v>
+        <v>2.200511482662009</v>
       </c>
       <c r="F17">
-        <v>2.526133568485079</v>
+        <v>0.8982973165621786</v>
       </c>
       <c r="G17">
-        <v>0.0007236278217604015</v>
+        <v>0.0007504242849872776</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3262588609857175</v>
+        <v>0.5151339177274465</v>
       </c>
       <c r="O17">
-        <v>1.94955153038255</v>
+        <v>2.510452439651232</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.065592756200147</v>
+        <v>3.938289491072339</v>
       </c>
       <c r="C18">
-        <v>1.721340231052181</v>
+        <v>0.9650917334263625</v>
       </c>
       <c r="D18">
-        <v>0.006044313024508696</v>
+        <v>0.03154457643019271</v>
       </c>
       <c r="E18">
-        <v>2.230643578881953</v>
+        <v>2.137818183715169</v>
       </c>
       <c r="F18">
-        <v>2.456663175162234</v>
+        <v>0.8761352961822979</v>
       </c>
       <c r="G18">
-        <v>0.0007260253192380439</v>
+        <v>0.0007516971260415897</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3366023852106643</v>
+        <v>0.5177839906011243</v>
       </c>
       <c r="O18">
-        <v>1.896024777761241</v>
+        <v>2.449974460666056</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.007233069816323</v>
+        <v>3.903601285272714</v>
       </c>
       <c r="C19">
-        <v>1.704854703617002</v>
+        <v>0.9570755170224743</v>
       </c>
       <c r="D19">
-        <v>0.006042549135081288</v>
+        <v>0.03131372893758311</v>
       </c>
       <c r="E19">
-        <v>2.20700913677544</v>
+        <v>2.116700283170317</v>
       </c>
       <c r="F19">
-        <v>2.43334024316799</v>
+        <v>0.8686790016180481</v>
       </c>
       <c r="G19">
-        <v>0.0007268370690951292</v>
+        <v>0.0007521290805577561</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3401485859284392</v>
+        <v>0.5187037184814329</v>
       </c>
       <c r="O19">
-        <v>1.878065049501089</v>
+        <v>2.429652869573829</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.270935190454168</v>
+        <v>4.059894574671432</v>
       </c>
       <c r="C20">
-        <v>1.779356931592702</v>
+        <v>0.9931862648751917</v>
       </c>
       <c r="D20">
-        <v>0.006065426101185878</v>
+        <v>0.03235278538799946</v>
       </c>
       <c r="E20">
-        <v>2.314159231323572</v>
+        <v>2.212167724330399</v>
       </c>
       <c r="F20">
-        <v>2.539087772084883</v>
+        <v>0.9024219362709971</v>
       </c>
       <c r="G20">
-        <v>0.0007231840560893987</v>
+        <v>0.0007501891727083278</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3243658195137868</v>
+        <v>0.5146542286176157</v>
       </c>
       <c r="O20">
-        <v>1.959537846915651</v>
+        <v>2.521720649380342</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.178138814532588</v>
+        <v>4.588779461847025</v>
       </c>
       <c r="C21">
-        <v>2.035923728378407</v>
+        <v>1.115248288760228</v>
       </c>
       <c r="D21">
-        <v>0.006436370625987564</v>
+        <v>0.03584913332388595</v>
       </c>
       <c r="E21">
-        <v>2.689966765398523</v>
+        <v>2.541366229913933</v>
       </c>
       <c r="F21">
-        <v>2.909792454195269</v>
+        <v>1.019352852144877</v>
       </c>
       <c r="G21">
-        <v>0.0007108833697769239</v>
+        <v>0.0007437345400813781</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.2746491881430053</v>
+        <v>0.5026806423544272</v>
       </c>
       <c r="O21">
-        <v>2.245967383413969</v>
+        <v>2.8427106978327</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.790046211735842</v>
+        <v>4.937747991118897</v>
       </c>
       <c r="C22">
-        <v>2.20925664040584</v>
+        <v>1.195687391069441</v>
       </c>
       <c r="D22">
-        <v>0.006943415528045449</v>
+        <v>0.03814008571278293</v>
       </c>
       <c r="E22">
-        <v>2.950034923973988</v>
+        <v>2.763913144149157</v>
       </c>
       <c r="F22">
-        <v>3.165661440859964</v>
+        <v>1.098757440348294</v>
       </c>
       <c r="G22">
-        <v>0.000702788228868199</v>
+        <v>0.0007395557873040688</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2449491608855148</v>
+        <v>0.4961585719297901</v>
       </c>
       <c r="O22">
-        <v>2.444368572556243</v>
+        <v>3.062262686443887</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.461494809560008</v>
+        <v>4.751159241000892</v>
       </c>
       <c r="C23">
-        <v>2.116157717933049</v>
+        <v>1.152686720518261</v>
       </c>
       <c r="D23">
-        <v>0.00664529928922164</v>
+        <v>0.03691668479666532</v>
       </c>
       <c r="E23">
-        <v>2.809715123391697</v>
+        <v>2.644382363287576</v>
       </c>
       <c r="F23">
-        <v>3.027706152803916</v>
+        <v>1.056082249980903</v>
       </c>
       <c r="G23">
-        <v>0.0007071164201274158</v>
+        <v>0.0007417829347003533</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2605221137755578</v>
+        <v>0.499514410855376</v>
       </c>
       <c r="O23">
-        <v>2.337329323237881</v>
+        <v>2.944116540809546</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.256381525197526</v>
+        <v>4.051298764839885</v>
       </c>
       <c r="C24">
-        <v>1.775244390642285</v>
+        <v>0.9912007489061239</v>
       </c>
       <c r="D24">
-        <v>0.00606316576338628</v>
+        <v>0.03229571014876598</v>
       </c>
       <c r="E24">
-        <v>2.308221673575687</v>
+        <v>2.206895960418933</v>
       </c>
       <c r="F24">
-        <v>2.533227510524398</v>
+        <v>0.9005563401891408</v>
       </c>
       <c r="G24">
-        <v>0.0007233846820047178</v>
+        <v>0.0007502954478565405</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3252208248166184</v>
+        <v>0.5148706778057317</v>
       </c>
       <c r="O24">
-        <v>1.955020008576966</v>
+        <v>2.516623472838376</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.01865287510094</v>
+        <v>3.307439118616003</v>
       </c>
       <c r="C25">
-        <v>1.425768372471168</v>
+        <v>0.819140975893248</v>
       </c>
       <c r="D25">
-        <v>0.006299421409387662</v>
+        <v>0.02732452594122492</v>
       </c>
       <c r="E25">
-        <v>1.813279072436288</v>
+        <v>1.759949175198344</v>
       </c>
       <c r="F25">
-        <v>2.045422202461992</v>
+        <v>0.7435453413936841</v>
       </c>
       <c r="G25">
-        <v>0.0007409089190076311</v>
+        <v>0.0007596939771575123</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4050283643520132</v>
+        <v>0.5364864080669847</v>
       </c>
       <c r="O25">
-        <v>1.580171624134067</v>
+        <v>2.090711759122769</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.766075824734571</v>
+        <v>2.265012107213749</v>
       </c>
       <c r="C2">
-        <v>0.6935696687066581</v>
+        <v>0.7444839457319574</v>
       </c>
       <c r="D2">
-        <v>0.02366419422781973</v>
+        <v>0.04817956113095079</v>
       </c>
       <c r="E2">
-        <v>1.445944237492782</v>
+        <v>1.428555766013631</v>
       </c>
       <c r="F2">
-        <v>0.6351620925894679</v>
+        <v>0.4062269360996495</v>
       </c>
       <c r="G2">
-        <v>0.0007668456388605915</v>
+        <v>0.3027082390162832</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01489305474039426</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2155518351191006</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1389860093821298</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5562123999111108</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.800833773841987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7839795413534176</v>
+      </c>
+      <c r="Q2">
+        <v>1.044603204407622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.40177832543344</v>
+        <v>1.974505038032873</v>
       </c>
       <c r="C3">
-        <v>0.6088615173242147</v>
+        <v>0.6606655458969612</v>
       </c>
       <c r="D3">
-        <v>0.02117902750486778</v>
+        <v>0.04227499402893642</v>
       </c>
       <c r="E3">
-        <v>1.239906624912422</v>
+        <v>1.228320938594905</v>
       </c>
       <c r="F3">
-        <v>0.5653377260186474</v>
+        <v>0.3662087331583805</v>
       </c>
       <c r="G3">
-        <v>0.0007718564862976923</v>
+        <v>0.2710045171858226</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01184366542587112</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.205771378743755</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1401809188852496</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5717217675983619</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.616335108191691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7677728665669719</v>
+      </c>
+      <c r="Q3">
+        <v>0.9565780725160664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.17897888455758</v>
+        <v>1.79549887100535</v>
       </c>
       <c r="C4">
-        <v>0.5569570407547246</v>
+        <v>0.6094853305461925</v>
       </c>
       <c r="D4">
-        <v>0.0196497225301755</v>
+        <v>0.03865552952183293</v>
       </c>
       <c r="E4">
-        <v>1.1159859786748</v>
+        <v>1.107381549056399</v>
       </c>
       <c r="F4">
-        <v>0.5239956972595365</v>
+        <v>0.3422301237388368</v>
       </c>
       <c r="G4">
-        <v>0.0007750198867462512</v>
+        <v>0.252050873796712</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01011959669251494</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2001072878817212</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1412205045729014</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.58222997129063</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.508111700071169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7585992210378691</v>
+      </c>
+      <c r="Q4">
+        <v>0.9043222695960225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.088355057200317</v>
+        <v>1.721408684194586</v>
       </c>
       <c r="C5">
-        <v>0.5358209189051024</v>
+        <v>0.5894591907732263</v>
       </c>
       <c r="D5">
-        <v>0.01902552544517278</v>
+        <v>0.0372228107718513</v>
       </c>
       <c r="E5">
-        <v>1.066037820414053</v>
+        <v>1.058520694345049</v>
       </c>
       <c r="F5">
-        <v>0.5074979187774389</v>
+        <v>0.3322756569604266</v>
       </c>
       <c r="G5">
-        <v>0.000776331587236995</v>
+        <v>0.2441191294789462</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.009497085904660807</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1977132765276934</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1415080883417037</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5867501311130781</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.465167673210971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7555174774924893</v>
+      </c>
+      <c r="Q5">
+        <v>0.8824044881428819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.073315767293764</v>
+        <v>1.707901558845975</v>
       </c>
       <c r="C6">
-        <v>0.5323118939672042</v>
+        <v>0.5870808779469883</v>
       </c>
       <c r="D6">
-        <v>0.01892181442550722</v>
+        <v>0.03703527118869943</v>
       </c>
       <c r="E6">
-        <v>1.057774459947751</v>
+        <v>1.050423768392449</v>
       </c>
       <c r="F6">
-        <v>0.504778591034075</v>
+        <v>0.3302397321252073</v>
       </c>
       <c r="G6">
-        <v>0.0007765507803558975</v>
+        <v>0.2424114807669753</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00945970802701801</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.197116918534519</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1413051875590412</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5875147994057031</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.458103591232714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.7555911859310385</v>
+      </c>
+      <c r="Q6">
+        <v>0.8775203430945879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.177756083411964</v>
+        <v>1.791226964913847</v>
       </c>
       <c r="C7">
-        <v>0.5566719438162409</v>
+        <v>0.6117997936432289</v>
       </c>
       <c r="D7">
-        <v>0.01964130857593105</v>
+        <v>0.03877395551873519</v>
       </c>
       <c r="E7">
-        <v>1.115310257103971</v>
+        <v>1.106699652223512</v>
       </c>
       <c r="F7">
-        <v>0.5237718326300893</v>
+        <v>0.3410258101801773</v>
       </c>
       <c r="G7">
-        <v>0.0007750374843990557</v>
+        <v>0.2508561170235026</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01027184187860808</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1995182800426605</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.140527564481248</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5822899806464434</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.507527999000473</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7601382745790133</v>
+      </c>
+      <c r="Q7">
+        <v>0.9005543974044059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.640250154873627</v>
+        <v>2.160590427906072</v>
       </c>
       <c r="C8">
-        <v>0.6643329365417401</v>
+        <v>0.7189744420428212</v>
       </c>
       <c r="D8">
-        <v>0.02280792460668835</v>
+        <v>0.04632632265023773</v>
       </c>
       <c r="E8">
-        <v>1.374302274697115</v>
+        <v>1.359018279284783</v>
       </c>
       <c r="F8">
-        <v>0.6107469108418897</v>
+        <v>0.3908750914117292</v>
       </c>
       <c r="G8">
-        <v>0.0007685558694685088</v>
+        <v>0.290216035986802</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01399739317939197</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2113677209309515</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1384114837052941</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5613494090822684</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.736097088462628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7803770720366714</v>
+      </c>
+      <c r="Q8">
+        <v>1.009244925594516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.556828783312994</v>
+        <v>2.886307520026662</v>
       </c>
       <c r="C9">
-        <v>0.8768823404829789</v>
+        <v>0.9272565188791759</v>
       </c>
       <c r="D9">
-        <v>0.02899840950839661</v>
+        <v>0.06094900662712632</v>
       </c>
       <c r="E9">
-        <v>1.907774086398788</v>
+        <v>1.873512339008713</v>
       </c>
       <c r="F9">
-        <v>0.7951869352119019</v>
+        <v>0.4958664191701629</v>
       </c>
       <c r="G9">
-        <v>0.0007564949147425843</v>
+        <v>0.3740112743346486</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.02241549247290653</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.238562299982064</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1381346740797262</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5285796361901873</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.23008865042047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.8236257598789649</v>
+      </c>
+      <c r="Q9">
+        <v>1.244618602089076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.24022409925584</v>
+        <v>3.415834064807143</v>
       </c>
       <c r="C10">
-        <v>1.034827047540517</v>
+        <v>1.084152473785508</v>
       </c>
       <c r="D10">
-        <v>0.03354828273404564</v>
+        <v>0.07182345607699148</v>
       </c>
       <c r="E10">
-        <v>2.323337497430771</v>
+        <v>2.269259021780641</v>
       </c>
       <c r="F10">
-        <v>0.9418197442609255</v>
+        <v>0.57661138159974</v>
       </c>
       <c r="G10">
-        <v>0.0007479702662119451</v>
+        <v>0.4387384673546819</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02975508830479701</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2604480949576242</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1394896029269361</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5102778712968856</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.629545654824454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.860702662447224</v>
+      </c>
+      <c r="Q10">
+        <v>1.428202457837187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.554326490604694</v>
+        <v>3.650914927299993</v>
       </c>
       <c r="C11">
-        <v>1.107302658041846</v>
+        <v>1.160699725645969</v>
       </c>
       <c r="D11">
-        <v>0.03562227541059571</v>
+        <v>0.07702335787661241</v>
       </c>
       <c r="E11">
-        <v>2.519627821551396</v>
+        <v>2.454550546918838</v>
       </c>
       <c r="F11">
-        <v>1.011609173056428</v>
+        <v>0.6126799657340882</v>
       </c>
       <c r="G11">
-        <v>0.0007441503156697329</v>
+        <v>0.4673882315940574</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.03365522865285797</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2700538128563466</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.139463084675107</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.503382420255889</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.821365197190516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.8815231710286184</v>
+      </c>
+      <c r="Q11">
+        <v>1.509288662988979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.673829337696986</v>
+        <v>3.742876922310927</v>
       </c>
       <c r="C12">
-        <v>1.134859493486772</v>
+        <v>1.187479270877475</v>
       </c>
       <c r="D12">
-        <v>0.03640862397074329</v>
+        <v>0.07887155190044126</v>
       </c>
       <c r="E12">
-        <v>2.595207259745806</v>
+        <v>2.525655283620367</v>
       </c>
       <c r="F12">
-        <v>1.038542902274841</v>
+        <v>0.6274661304074272</v>
       </c>
       <c r="G12">
-        <v>0.0007427107301547542</v>
+        <v>0.4793657531942586</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.03504081907190226</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2742681765476789</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1401295069233512</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5009933608090975</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.895659445373582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.8880651606949357</v>
+      </c>
+      <c r="Q12">
+        <v>1.543593313959917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.648065750147339</v>
+        <v>3.72366838123537</v>
       </c>
       <c r="C13">
-        <v>1.128919279874935</v>
+        <v>1.181233989721932</v>
       </c>
       <c r="D13">
-        <v>0.03623921998698165</v>
+        <v>0.07844831697700982</v>
       </c>
       <c r="E13">
-        <v>2.578870728508463</v>
+        <v>2.510306228578031</v>
       </c>
       <c r="F13">
-        <v>1.032718669950626</v>
+        <v>0.6244640195808842</v>
       </c>
       <c r="G13">
-        <v>0.0007430204855868364</v>
+        <v>0.4769723870940084</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0347093323085268</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2734544283774198</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1401029636941935</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5014977307945472</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.879581692973062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.8863423700954769</v>
+      </c>
+      <c r="Q13">
+        <v>1.536796583363952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.564146268261425</v>
+        <v>3.658734145945573</v>
       </c>
       <c r="C14">
-        <v>1.109567397300083</v>
+        <v>1.162699887547092</v>
       </c>
       <c r="D14">
-        <v>0.035686946971488</v>
+        <v>0.07716471022877158</v>
       </c>
       <c r="E14">
-        <v>2.525819472960691</v>
+        <v>2.460384410796365</v>
       </c>
       <c r="F14">
-        <v>1.013814504422228</v>
+        <v>0.6139736665333544</v>
       </c>
       <c r="G14">
-        <v>0.0007440317493880345</v>
+        <v>0.4684525125484811</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.03375482029297849</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2704403093126189</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1395675107268985</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5031813198843267</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.827442985638669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.8819280892496693</v>
+      </c>
+      <c r="Q14">
+        <v>1.512361467093541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.512819004847529</v>
+        <v>3.617786019231119</v>
       </c>
       <c r="C15">
-        <v>1.097729080993531</v>
+        <v>1.152292789111954</v>
       </c>
       <c r="D15">
-        <v>0.03534880236537674</v>
+        <v>0.07642815973986927</v>
       </c>
       <c r="E15">
-        <v>2.493493290864308</v>
+        <v>2.429914359198563</v>
       </c>
       <c r="F15">
-        <v>1.002303020489009</v>
+        <v>0.6071971086734607</v>
       </c>
       <c r="G15">
-        <v>0.0007446520384538977</v>
+        <v>0.4628747605160299</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.03324154303094851</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2684131657451587</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1390126862961196</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5042420055257253</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.795728660701144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.8798475184696031</v>
+      </c>
+      <c r="Q15">
+        <v>1.49625406944196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.219769543266636</v>
+        <v>3.390608364147056</v>
       </c>
       <c r="C16">
-        <v>1.030104997953288</v>
+        <v>1.086961991672041</v>
       </c>
       <c r="D16">
-        <v>0.03341285727058363</v>
+        <v>0.07189801338090263</v>
       </c>
       <c r="E16">
-        <v>2.310672268165646</v>
+        <v>2.257158086990145</v>
       </c>
       <c r="F16">
-        <v>0.9373260975693825</v>
+        <v>0.5711198310303089</v>
       </c>
       <c r="G16">
-        <v>0.0007482209603067192</v>
+        <v>0.4336769025435103</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02999925452783181</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2582070001619741</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.137499284008225</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5107586538619486</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.61722998698599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.8643950248642227</v>
+      </c>
+      <c r="Q16">
+        <v>1.412763922387313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.040883212277947</v>
+        <v>3.251248489185684</v>
       </c>
       <c r="C17">
-        <v>0.988794820117505</v>
+        <v>1.047053872122007</v>
       </c>
       <c r="D17">
-        <v>0.03222654104937561</v>
+        <v>0.06912203081387958</v>
       </c>
       <c r="E17">
-        <v>2.200511482662009</v>
+        <v>2.152638690749555</v>
       </c>
       <c r="F17">
-        <v>0.8982973165621786</v>
+        <v>0.5493036397456734</v>
       </c>
       <c r="G17">
-        <v>0.0007504242849872776</v>
+        <v>0.4160548240922708</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.02809630961355492</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2521042058444181</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1367087051227074</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5151339177274465</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.510452439651232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.855172038032336</v>
+      </c>
+      <c r="Q17">
+        <v>1.362489323130603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.938289491072339</v>
+        <v>3.174060995503396</v>
       </c>
       <c r="C18">
-        <v>0.9650917334263625</v>
+        <v>1.021797784548994</v>
       </c>
       <c r="D18">
-        <v>0.03154457643019271</v>
+        <v>0.06740117625145103</v>
       </c>
       <c r="E18">
-        <v>2.137818183715169</v>
+        <v>2.093046300678623</v>
       </c>
       <c r="F18">
-        <v>0.8761352961822979</v>
+        <v>0.5378187809387285</v>
       </c>
       <c r="G18">
-        <v>0.0007516971260415897</v>
+        <v>0.4069882278162709</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0268440229044975</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2491405973931649</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1369061151164246</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5177839906011243</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.449974460666056</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.8484425637750519</v>
+      </c>
+      <c r="Q18">
+        <v>1.336982929607586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.903601285272714</v>
+        <v>3.145632097589385</v>
       </c>
       <c r="C19">
-        <v>0.9570755170224743</v>
+        <v>1.015075345532949</v>
       </c>
       <c r="D19">
-        <v>0.03131372893758311</v>
+        <v>0.0669152707104459</v>
       </c>
       <c r="E19">
-        <v>2.116700283170317</v>
+        <v>2.072926028459889</v>
       </c>
       <c r="F19">
-        <v>0.8686790016180481</v>
+        <v>0.5332127833193709</v>
       </c>
       <c r="G19">
-        <v>0.0007521290805577561</v>
+        <v>0.4031874877082231</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0265662441089427</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2477675747114034</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1365152284528435</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5187037184814329</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.429652869573829</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.8473490743027128</v>
+      </c>
+      <c r="Q19">
+        <v>1.326023267368527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.059894574671432</v>
+        <v>3.266317430313563</v>
       </c>
       <c r="C20">
-        <v>0.9931862648751917</v>
+        <v>1.051110676104145</v>
       </c>
       <c r="D20">
-        <v>0.03235278538799946</v>
+        <v>0.06940758837944117</v>
       </c>
       <c r="E20">
-        <v>2.212167724330399</v>
+        <v>2.16371545029277</v>
       </c>
       <c r="F20">
-        <v>0.9024219362709971</v>
+        <v>0.5516893956481894</v>
       </c>
       <c r="G20">
-        <v>0.0007501891727083278</v>
+        <v>0.4179962966743886</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02828076889500064</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2527866068874545</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1368351394353944</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5146542286176157</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.521720649380342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8560249081471198</v>
+      </c>
+      <c r="Q20">
+        <v>1.368048806762232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.588779461847025</v>
+        <v>3.674461906849444</v>
       </c>
       <c r="C21">
-        <v>1.115248288760228</v>
+        <v>1.170787943143125</v>
       </c>
       <c r="D21">
-        <v>0.03584913332388595</v>
+        <v>0.07768217652460407</v>
       </c>
       <c r="E21">
-        <v>2.541366229913933</v>
+        <v>2.474981615843035</v>
       </c>
       <c r="F21">
-        <v>1.019352852144877</v>
+        <v>0.6159805813731651</v>
       </c>
       <c r="G21">
-        <v>0.0007437345400813781</v>
+        <v>0.4698634834532243</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0342193839417444</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2707735690487851</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1390478329958462</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5026806423544272</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.8427106978327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.8849383032042937</v>
+      </c>
+      <c r="Q21">
+        <v>1.516068805402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.937747991118897</v>
+        <v>3.945554960960578</v>
       </c>
       <c r="C22">
-        <v>1.195687391069441</v>
+        <v>1.246267731993044</v>
       </c>
       <c r="D22">
-        <v>0.03814008571278293</v>
+        <v>0.08292322417298692</v>
       </c>
       <c r="E22">
-        <v>2.763913144149157</v>
+        <v>2.683822530871794</v>
       </c>
       <c r="F22">
-        <v>1.098757440348294</v>
+        <v>0.6604742460299065</v>
       </c>
       <c r="G22">
-        <v>0.0007395557873040688</v>
+        <v>0.5061719056896123</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.0381631166063281</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2837806029901344</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1418296484372448</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4961585719297901</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>3.062262686443887</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.9025291091737984</v>
+      </c>
+      <c r="Q22">
+        <v>1.620531470494257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.751159241000892</v>
+        <v>3.804889161768529</v>
       </c>
       <c r="C23">
-        <v>1.152686720518261</v>
+        <v>1.20272801438017</v>
       </c>
       <c r="D23">
-        <v>0.03691668479666532</v>
+        <v>0.07995538248479761</v>
       </c>
       <c r="E23">
-        <v>2.644382363287576</v>
+        <v>2.571869364508416</v>
       </c>
       <c r="F23">
-        <v>1.056082249980903</v>
+        <v>0.6379077209049484</v>
       </c>
       <c r="G23">
-        <v>0.0007417829347003533</v>
+        <v>0.4880036471480338</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.03582261560433242</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2774476480390859</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1411133257230404</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.499514410855376</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.944116540809546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.8909836611826591</v>
+      </c>
+      <c r="Q23">
+        <v>1.568619440265081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.051298764839885</v>
+        <v>3.265806814138841</v>
       </c>
       <c r="C24">
-        <v>0.9912007489061239</v>
+        <v>1.044284010979112</v>
       </c>
       <c r="D24">
-        <v>0.03229571014876598</v>
+        <v>0.06901342752795614</v>
       </c>
       <c r="E24">
-        <v>2.206895960418933</v>
+        <v>2.158773858906684</v>
       </c>
       <c r="F24">
-        <v>0.9005563401891408</v>
+        <v>0.5526311884049875</v>
       </c>
       <c r="G24">
-        <v>0.0007502954478565405</v>
+        <v>0.4191721472169689</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02784089572565307</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2535183478013181</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1380583169049032</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5148706778057317</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.516623472838376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8524258822628923</v>
+      </c>
+      <c r="Q24">
+        <v>1.372067118766779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.307439118616003</v>
+        <v>2.684327615265488</v>
       </c>
       <c r="C25">
-        <v>0.819140975893248</v>
+        <v>0.8753215341616567</v>
       </c>
       <c r="D25">
-        <v>0.02732452594122492</v>
+        <v>0.05723907167308795</v>
       </c>
       <c r="E25">
-        <v>1.759949175198344</v>
+        <v>1.731607782331153</v>
       </c>
       <c r="F25">
-        <v>0.7435453413936841</v>
+        <v>0.4648498696215455</v>
       </c>
       <c r="G25">
-        <v>0.0007596939771575123</v>
+        <v>0.3487700122148993</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.02025338846668578</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2298413335269487</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1366472076315866</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1682,16 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5364864080669847</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.090711759122769</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8142229991758256</v>
+      </c>
+      <c r="Q25">
+        <v>1.172641080169313</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.265012107213749</v>
+        <v>2.213803297154584</v>
       </c>
       <c r="C2">
-        <v>0.7444839457319574</v>
+        <v>0.7739965655096626</v>
       </c>
       <c r="D2">
-        <v>0.04817956113095079</v>
+        <v>0.05047268305190755</v>
       </c>
       <c r="E2">
-        <v>1.428555766013631</v>
+        <v>1.425469376732437</v>
       </c>
       <c r="F2">
-        <v>0.4062269360996495</v>
+        <v>0.3948093978895386</v>
       </c>
       <c r="G2">
-        <v>0.3027082390162832</v>
+        <v>0.2799100727831387</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01489305474039426</v>
+        <v>0.01343878098370244</v>
       </c>
       <c r="J2">
-        <v>0.2155518351191006</v>
+        <v>0.2577962216009553</v>
       </c>
       <c r="K2">
-        <v>0.1389860093821298</v>
+        <v>0.1340702239177496</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1048638878649193</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01906352074757756</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7839795413534176</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.044603204407622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8135061371194325</v>
+      </c>
+      <c r="S2">
+        <v>1.011484562971873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.974505038032873</v>
+        <v>1.936062429582108</v>
       </c>
       <c r="C3">
-        <v>0.6606655458969612</v>
+        <v>0.6807879159141805</v>
       </c>
       <c r="D3">
-        <v>0.04227499402893642</v>
+        <v>0.04403996809828925</v>
       </c>
       <c r="E3">
-        <v>1.228320938594905</v>
+        <v>1.226107174000575</v>
       </c>
       <c r="F3">
-        <v>0.3662087331583805</v>
+        <v>0.3582401990126556</v>
       </c>
       <c r="G3">
-        <v>0.2710045171858226</v>
+        <v>0.2502381881774767</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01184366542587112</v>
+        <v>0.01085567865168535</v>
       </c>
       <c r="J3">
-        <v>0.205771378743755</v>
+        <v>0.248820381692795</v>
       </c>
       <c r="K3">
-        <v>0.1401809188852496</v>
+        <v>0.1366047991087296</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1098923618194192</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01659113561521597</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7677728665669719</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9565780725160664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.790132406870768</v>
+      </c>
+      <c r="S3">
+        <v>0.9340813127806769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.79549887100535</v>
+        <v>1.764604455160907</v>
       </c>
       <c r="C4">
-        <v>0.6094853305461925</v>
+        <v>0.6240292056043302</v>
       </c>
       <c r="D4">
-        <v>0.03865552952183293</v>
+        <v>0.04010523010749267</v>
       </c>
       <c r="E4">
-        <v>1.107381549056399</v>
+        <v>1.105629331151619</v>
       </c>
       <c r="F4">
-        <v>0.3422301237388368</v>
+        <v>0.3362488588033656</v>
       </c>
       <c r="G4">
-        <v>0.252050873796712</v>
+        <v>0.2325071227758855</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01011959669251494</v>
+        <v>0.009393123963998828</v>
       </c>
       <c r="J4">
-        <v>0.2001072878817212</v>
+        <v>0.2434465425390826</v>
       </c>
       <c r="K4">
-        <v>0.1412205045729014</v>
+        <v>0.1383837924875735</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1131363052988714</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01559358281381318</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7585992210378691</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9043222695960225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7766421136130504</v>
+      </c>
+      <c r="S4">
+        <v>0.8879175049301438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.721408684194586</v>
+        <v>1.693523953094711</v>
       </c>
       <c r="C5">
-        <v>0.5894591907732263</v>
+        <v>0.6017994327405916</v>
       </c>
       <c r="D5">
-        <v>0.0372228107718513</v>
+        <v>0.03854702002858801</v>
       </c>
       <c r="E5">
-        <v>1.058520694345049</v>
+        <v>1.056941126367974</v>
       </c>
       <c r="F5">
-        <v>0.3322756569604266</v>
+        <v>0.3270752858933577</v>
       </c>
       <c r="G5">
-        <v>0.2441191294789462</v>
+        <v>0.225072974028528</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.009497085904660807</v>
+        <v>0.00888493415657976</v>
       </c>
       <c r="J5">
-        <v>0.1977132765276934</v>
+        <v>0.2411175877887572</v>
       </c>
       <c r="K5">
-        <v>0.1415080883417037</v>
+        <v>0.1389607332736809</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.114383081240657</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01527535955672654</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7555174774924893</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8824044881428819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7718387030523459</v>
+      </c>
+      <c r="S5">
+        <v>0.8683902409624693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.707901558845975</v>
+        <v>1.680516407946442</v>
       </c>
       <c r="C6">
-        <v>0.5870808779469883</v>
+        <v>0.5990866257025118</v>
       </c>
       <c r="D6">
-        <v>0.03703527118869943</v>
+        <v>0.03833969361492962</v>
       </c>
       <c r="E6">
-        <v>1.050423768392449</v>
+        <v>1.048872281967093</v>
       </c>
       <c r="F6">
-        <v>0.3302397321252073</v>
+        <v>0.3251698034037815</v>
       </c>
       <c r="G6">
-        <v>0.2424114807669753</v>
+        <v>0.2234553228994614</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.00945970802701801</v>
+        <v>0.008884017774002828</v>
       </c>
       <c r="J6">
-        <v>0.197116918534519</v>
+        <v>0.2405233092356909</v>
       </c>
       <c r="K6">
-        <v>0.1413051875590412</v>
+        <v>0.1388146341799086</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1144533904985359</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0151806542032551</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7555911859310385</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8775203430945879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7716473655010745</v>
+      </c>
+      <c r="S6">
+        <v>0.8639098405123775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.791226964913847</v>
+        <v>1.759260898891029</v>
       </c>
       <c r="C7">
-        <v>0.6117997936432289</v>
+        <v>0.6256245784320811</v>
       </c>
       <c r="D7">
-        <v>0.03877395551873519</v>
+        <v>0.04032308527862227</v>
       </c>
       <c r="E7">
-        <v>1.106699652223512</v>
+        <v>1.104931757846998</v>
       </c>
       <c r="F7">
-        <v>0.3410258101801773</v>
+        <v>0.3343376257974171</v>
       </c>
       <c r="G7">
-        <v>0.2508561170235026</v>
+        <v>0.2342810023556083</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01027184187860808</v>
+        <v>0.009585220301493891</v>
       </c>
       <c r="J7">
-        <v>0.1995182800426605</v>
+        <v>0.2385704961550488</v>
       </c>
       <c r="K7">
-        <v>0.140527564481248</v>
+        <v>0.1375057268039654</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1126647164178056</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.01539363579509079</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7601382745790133</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9005543974044059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7787909629658145</v>
+      </c>
+      <c r="S7">
+        <v>0.8818861568129535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.160590427906072</v>
+        <v>2.110099424481291</v>
       </c>
       <c r="C8">
-        <v>0.7189744420428212</v>
+        <v>0.7427378472165742</v>
       </c>
       <c r="D8">
-        <v>0.04632632265023773</v>
+        <v>0.04877177532986821</v>
       </c>
       <c r="E8">
-        <v>1.359018279284783</v>
+        <v>1.356178795965533</v>
       </c>
       <c r="F8">
-        <v>0.3908750914117292</v>
+        <v>0.3782701833406747</v>
       </c>
       <c r="G8">
-        <v>0.290216035986802</v>
+        <v>0.2780289623704419</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01399739317939197</v>
+        <v>0.01273948240276113</v>
       </c>
       <c r="J8">
-        <v>0.2113677209309515</v>
+        <v>0.2399176697946217</v>
       </c>
       <c r="K8">
-        <v>0.1384114837052941</v>
+        <v>0.133309710955654</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1057841675031117</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01765671789733325</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7803770720366714</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.009244925594516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8094860274333655</v>
+      </c>
+      <c r="S8">
+        <v>0.9721805612942944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.886307520026662</v>
+        <v>2.801047476438498</v>
       </c>
       <c r="C9">
-        <v>0.9272565188791759</v>
+        <v>0.9746430867666902</v>
       </c>
       <c r="D9">
-        <v>0.06094900662712632</v>
+        <v>0.06486014909773274</v>
       </c>
       <c r="E9">
-        <v>1.873512339008713</v>
+        <v>1.867881950121458</v>
       </c>
       <c r="F9">
-        <v>0.4958664191701629</v>
+        <v>0.4731412122943439</v>
       </c>
       <c r="G9">
-        <v>0.3740112743346486</v>
+        <v>0.3594380311162269</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02241549247290653</v>
+        <v>0.01975767997407729</v>
       </c>
       <c r="J9">
-        <v>0.238562299982064</v>
+        <v>0.2599004362060953</v>
       </c>
       <c r="K9">
-        <v>0.1381346740797262</v>
+        <v>0.1289663942464223</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09454319971674785</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02685258067577578</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8236257598789649</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.244618602089076</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8716557566149987</v>
+      </c>
+      <c r="S9">
+        <v>1.176130697779598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.415834064807143</v>
+        <v>3.29644112755517</v>
       </c>
       <c r="C10">
-        <v>1.084152473785508</v>
+        <v>1.145175454151911</v>
       </c>
       <c r="D10">
-        <v>0.07182345607699148</v>
+        <v>0.07746870997310396</v>
       </c>
       <c r="E10">
-        <v>2.269259021780641</v>
+        <v>2.260667014207129</v>
       </c>
       <c r="F10">
-        <v>0.57661138159974</v>
+        <v>0.5413147550358275</v>
       </c>
       <c r="G10">
-        <v>0.4387384673546819</v>
+        <v>0.4403665392723894</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.02975508830479701</v>
+        <v>0.02584070943639727</v>
       </c>
       <c r="J10">
-        <v>0.2604480949576242</v>
+        <v>0.2516074839858362</v>
       </c>
       <c r="K10">
-        <v>0.1394896029269361</v>
+        <v>0.1256383603445705</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08652930068769571</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03570804946286721</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.860702662447224</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.428202457837187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9268083115271537</v>
+      </c>
+      <c r="S10">
+        <v>1.320157776610415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.650914927299993</v>
+        <v>3.503484957575211</v>
       </c>
       <c r="C11">
-        <v>1.160699725645969</v>
+        <v>1.219881663954169</v>
       </c>
       <c r="D11">
-        <v>0.07702335787661241</v>
+        <v>0.08457721914380301</v>
       </c>
       <c r="E11">
-        <v>2.454550546918838</v>
+        <v>2.444026597456713</v>
       </c>
       <c r="F11">
-        <v>0.6126799657340882</v>
+        <v>0.5638528082199059</v>
       </c>
       <c r="G11">
-        <v>0.4673882315940574</v>
+        <v>0.5096386254668062</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03365522865285797</v>
+        <v>0.02909421823235459</v>
       </c>
       <c r="J11">
-        <v>0.2700538128563466</v>
+        <v>0.2101483830012967</v>
       </c>
       <c r="K11">
-        <v>0.139463084675107</v>
+        <v>0.1213463124029985</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08206405583263354</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03894175270221112</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8815231710286184</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.509288662988979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.9629549265402915</v>
+      </c>
+      <c r="S11">
+        <v>1.358416216329744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.742876922310927</v>
+        <v>3.583127864967139</v>
       </c>
       <c r="C12">
-        <v>1.187479270877475</v>
+        <v>1.244805881895502</v>
       </c>
       <c r="D12">
-        <v>0.07887155190044126</v>
+        <v>0.08729389105213414</v>
       </c>
       <c r="E12">
-        <v>2.525655283620367</v>
+        <v>2.514305702554083</v>
       </c>
       <c r="F12">
-        <v>0.6274661304074272</v>
+        <v>0.5724669675417786</v>
       </c>
       <c r="G12">
-        <v>0.4793657531942586</v>
+        <v>0.5419137949846089</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.03504081907190226</v>
+        <v>0.03016603203044621</v>
       </c>
       <c r="J12">
-        <v>0.2742681765476789</v>
+        <v>0.1921077760342911</v>
       </c>
       <c r="K12">
-        <v>0.1401295069233512</v>
+        <v>0.1200509813868962</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08052729361773991</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04034296601070153</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8880651606949357</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.543593313959917</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.9761478159781944</v>
+      </c>
+      <c r="S12">
+        <v>1.373156985093146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.72366838123537</v>
+        <v>3.566637498861496</v>
       </c>
       <c r="C13">
-        <v>1.181233989721932</v>
+        <v>1.238990622911388</v>
       </c>
       <c r="D13">
-        <v>0.07844831697700982</v>
+        <v>0.08667531032262588</v>
       </c>
       <c r="E13">
-        <v>2.510306228578031</v>
+        <v>2.49913829904996</v>
       </c>
       <c r="F13">
-        <v>0.6244640195808842</v>
+        <v>0.5708326983478997</v>
       </c>
       <c r="G13">
-        <v>0.4769723870940084</v>
+        <v>0.5349244672500788</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0347093323085268</v>
+        <v>0.02989313179019337</v>
       </c>
       <c r="J13">
-        <v>0.2734544283774198</v>
+        <v>0.1961516401478391</v>
       </c>
       <c r="K13">
-        <v>0.1401029636941935</v>
+        <v>0.1204448070481945</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08089431528494906</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04009014700584856</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8863423700954769</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.536796583363952</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.9729251048030818</v>
+      </c>
+      <c r="S13">
+        <v>1.370686328710036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.658734145945573</v>
+        <v>3.510320306796359</v>
       </c>
       <c r="C14">
-        <v>1.162699887547092</v>
+        <v>1.221742987623827</v>
       </c>
       <c r="D14">
-        <v>0.07716471022877158</v>
+        <v>0.08478637601372441</v>
       </c>
       <c r="E14">
-        <v>2.460384410796365</v>
+        <v>2.449794266873539</v>
       </c>
       <c r="F14">
-        <v>0.6139736665333544</v>
+        <v>0.5646564667333607</v>
       </c>
       <c r="G14">
-        <v>0.4684525125484811</v>
+        <v>0.5122719511618783</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.03375482029297849</v>
+        <v>0.02916415878768586</v>
       </c>
       <c r="J14">
-        <v>0.2704403093126189</v>
+        <v>0.2087389661228087</v>
       </c>
       <c r="K14">
-        <v>0.1395675107268985</v>
+        <v>0.1212890473635717</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08195331674304107</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03907775551434867</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8819280892496693</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.512361467093541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.9638777902498958</v>
+      </c>
+      <c r="S14">
+        <v>1.359931858621536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.617786019231119</v>
+        <v>3.474449632813673</v>
       </c>
       <c r="C15">
-        <v>1.152292789111954</v>
+        <v>1.212021310232956</v>
       </c>
       <c r="D15">
-        <v>0.07642815973986927</v>
+        <v>0.08370148223058749</v>
       </c>
       <c r="E15">
-        <v>2.429914359198563</v>
+        <v>2.419666594198134</v>
       </c>
       <c r="F15">
-        <v>0.6071971086734607</v>
+        <v>0.5604009168051434</v>
       </c>
       <c r="G15">
-        <v>0.4628747605160299</v>
+        <v>0.4986957893807755</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03324154303094851</v>
+        <v>0.02880645224693712</v>
       </c>
       <c r="J15">
-        <v>0.2684131657451587</v>
+        <v>0.2159975313511353</v>
       </c>
       <c r="K15">
-        <v>0.1390126862961196</v>
+        <v>0.1215687750229222</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08252663993246223</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03836025920751851</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8798475184696031</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.49625406944196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.9591287449411112</v>
+      </c>
+      <c r="S15">
+        <v>1.351836236427147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.390608364147056</v>
+        <v>3.272965039398457</v>
       </c>
       <c r="C16">
-        <v>1.086961991672041</v>
+        <v>1.148299612186634</v>
       </c>
       <c r="D16">
-        <v>0.07189801338090263</v>
+        <v>0.07745435279159807</v>
       </c>
       <c r="E16">
-        <v>2.257158086990145</v>
+        <v>2.248686576511417</v>
       </c>
       <c r="F16">
-        <v>0.5711198310303089</v>
+        <v>0.5366602031465675</v>
       </c>
       <c r="G16">
-        <v>0.4336769025435103</v>
+        <v>0.433267529360478</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.02999925452783181</v>
+        <v>0.02628272574680324</v>
       </c>
       <c r="J16">
-        <v>0.2582070001619741</v>
+        <v>0.2523745139292117</v>
       </c>
       <c r="K16">
-        <v>0.137499284008225</v>
+        <v>0.1240869820095476</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08617669168372011</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03474185357061543</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8643950248642227</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.412763922387313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.929944488253156</v>
+      </c>
+      <c r="S16">
+        <v>1.307471775274195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.251248489185684</v>
+        <v>3.146570169234451</v>
       </c>
       <c r="C17">
-        <v>1.047053872122007</v>
+        <v>1.107581092093</v>
       </c>
       <c r="D17">
-        <v>0.06912203081387958</v>
+        <v>0.0738726714868676</v>
       </c>
       <c r="E17">
-        <v>2.152638690749555</v>
+        <v>2.145107589662331</v>
       </c>
       <c r="F17">
-        <v>0.5493036397456734</v>
+        <v>0.5206777587578983</v>
       </c>
       <c r="G17">
-        <v>0.4160548240922708</v>
+        <v>0.4010866880443018</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.02809630961355492</v>
+        <v>0.02478209546639754</v>
       </c>
       <c r="J17">
-        <v>0.2521042058444181</v>
+        <v>0.2678462206051933</v>
       </c>
       <c r="K17">
-        <v>0.1367087051227074</v>
+        <v>0.1252728828180381</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08833430321903712</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03246289851320583</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.855172038032336</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.362489323130603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.9138447977080375</v>
+      </c>
+      <c r="S17">
+        <v>1.275686720764782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.174060995503396</v>
+        <v>3.075827548970665</v>
       </c>
       <c r="C18">
-        <v>1.021797784548994</v>
+        <v>1.081120949284156</v>
       </c>
       <c r="D18">
-        <v>0.06740117625145103</v>
+        <v>0.07176964644386175</v>
       </c>
       <c r="E18">
-        <v>2.093046300678623</v>
+        <v>2.086004593219229</v>
       </c>
       <c r="F18">
-        <v>0.5378187809387285</v>
+        <v>0.5119182531794664</v>
       </c>
       <c r="G18">
-        <v>0.4069882278162709</v>
+        <v>0.3861597497535314</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0268440229044975</v>
+        <v>0.02369251333808631</v>
       </c>
       <c r="J18">
-        <v>0.2491405973931649</v>
+        <v>0.2743245179344029</v>
       </c>
       <c r="K18">
-        <v>0.1369061151164246</v>
+        <v>0.1263784137380171</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08974702909728371</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0313556486047819</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8484425637750519</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.336982929607586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9036052951736195</v>
+      </c>
+      <c r="S18">
+        <v>1.258780937356192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.145632097589385</v>
+        <v>3.049446256648935</v>
       </c>
       <c r="C19">
-        <v>1.015075345532949</v>
+        <v>1.073967995793879</v>
       </c>
       <c r="D19">
-        <v>0.0669152707104459</v>
+        <v>0.07117149026988301</v>
       </c>
       <c r="E19">
-        <v>2.072926028459889</v>
+        <v>2.066043341103182</v>
       </c>
       <c r="F19">
-        <v>0.5332127833193709</v>
+        <v>0.508150188940526</v>
       </c>
       <c r="G19">
-        <v>0.4031874877082231</v>
+        <v>0.3808018659357089</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0265662441089427</v>
+        <v>0.0235095709674944</v>
       </c>
       <c r="J19">
-        <v>0.2477675747114034</v>
+        <v>0.2756326337417363</v>
       </c>
       <c r="K19">
-        <v>0.1365152284528435</v>
+        <v>0.126306056400324</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09006077360380615</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03081012091006308</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8473490743027128</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.326023267368527</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.901477408104725</v>
+      </c>
+      <c r="S19">
+        <v>1.250481486108441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.266317430313563</v>
+        <v>3.160358191669275</v>
       </c>
       <c r="C20">
-        <v>1.051110676104145</v>
+        <v>1.111781885856175</v>
       </c>
       <c r="D20">
-        <v>0.06940758837944117</v>
+        <v>0.07423472384615337</v>
       </c>
       <c r="E20">
-        <v>2.16371545029277</v>
+        <v>2.156089370103714</v>
       </c>
       <c r="F20">
-        <v>0.5516893956481894</v>
+        <v>0.5225043314955613</v>
       </c>
       <c r="G20">
-        <v>0.4179962966743886</v>
+        <v>0.4043088306908231</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.02828076889500064</v>
+        <v>0.02492071991733091</v>
       </c>
       <c r="J20">
-        <v>0.2527866068874545</v>
+        <v>0.2665293659605368</v>
       </c>
       <c r="K20">
-        <v>0.1368351394353944</v>
+        <v>0.1252030022583561</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08812382432757104</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03272453783241325</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8560249081471198</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.368048806762232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.915366909032457</v>
+      </c>
+      <c r="S20">
+        <v>1.279472929869797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.674461906849444</v>
+        <v>3.519356308146371</v>
       </c>
       <c r="C21">
-        <v>1.170787943143125</v>
+        <v>1.22662327500305</v>
       </c>
       <c r="D21">
-        <v>0.07768217652460407</v>
+        <v>0.08587350700313578</v>
       </c>
       <c r="E21">
-        <v>2.474981615843035</v>
+        <v>2.464110443052348</v>
       </c>
       <c r="F21">
-        <v>0.6159805813731651</v>
+        <v>0.5627800001341825</v>
       </c>
       <c r="G21">
-        <v>0.4698634834532243</v>
+        <v>0.5296639915110717</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0342193839417444</v>
+        <v>0.02958519120234993</v>
       </c>
       <c r="J21">
-        <v>0.2707735690487851</v>
+        <v>0.1927368458953111</v>
       </c>
       <c r="K21">
-        <v>0.1390478329958462</v>
+        <v>0.119704846176429</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08119794488117904</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.03878443683991151</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8849383032042937</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.516068805402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.9707591792537755</v>
+      </c>
+      <c r="S21">
+        <v>1.351343745977886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.945554960960578</v>
+        <v>3.75556895157689</v>
       </c>
       <c r="C22">
-        <v>1.246267731993044</v>
+        <v>1.297528779578784</v>
       </c>
       <c r="D22">
-        <v>0.08292322417298692</v>
+        <v>0.09354638775685231</v>
       </c>
       <c r="E22">
-        <v>2.683822530871794</v>
+        <v>2.670479316554804</v>
       </c>
       <c r="F22">
-        <v>0.6604742460299065</v>
+        <v>0.5899840258011224</v>
       </c>
       <c r="G22">
-        <v>0.5061719056896123</v>
+        <v>0.6234642782727917</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.0381631166063281</v>
+        <v>0.03254989608115189</v>
       </c>
       <c r="J22">
-        <v>0.2837806029901344</v>
+        <v>0.1501486304397943</v>
       </c>
       <c r="K22">
-        <v>0.1418296484372448</v>
+        <v>0.1168976366376242</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07712305859111979</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.04335467015808447</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9025291091737984</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.620531470494257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.007050323760836</v>
+      </c>
+      <c r="S22">
+        <v>1.401035680556362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.804889161768529</v>
+        <v>3.636657286026036</v>
       </c>
       <c r="C23">
-        <v>1.20272801438017</v>
+        <v>1.258481374910161</v>
       </c>
       <c r="D23">
-        <v>0.07995538248479761</v>
+        <v>0.08897637010117876</v>
       </c>
       <c r="E23">
-        <v>2.571869364508416</v>
+        <v>2.559957681517474</v>
       </c>
       <c r="F23">
-        <v>0.6379077209049484</v>
+        <v>0.5785939132109732</v>
       </c>
       <c r="G23">
-        <v>0.4880036471480338</v>
+        <v>0.5652224054341701</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.03582261560433242</v>
+        <v>0.03069619731185824</v>
       </c>
       <c r="J23">
-        <v>0.2774476480390859</v>
+        <v>0.1802701487293561</v>
       </c>
       <c r="K23">
-        <v>0.1411133257230404</v>
+        <v>0.1196172807453237</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07967567230745232</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04143876479525233</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8909836611826591</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.568619440265081</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.983527686141656</v>
+      </c>
+      <c r="S23">
+        <v>1.384470844741458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.265806814138841</v>
+        <v>3.160348689450416</v>
       </c>
       <c r="C24">
-        <v>1.044284010979112</v>
+        <v>1.104668102510118</v>
       </c>
       <c r="D24">
-        <v>0.06901342752795614</v>
+        <v>0.07379683985266183</v>
       </c>
       <c r="E24">
-        <v>2.158773858906684</v>
+        <v>2.151187042906074</v>
       </c>
       <c r="F24">
-        <v>0.5526311884049875</v>
+        <v>0.5236511965808006</v>
       </c>
       <c r="G24">
-        <v>0.4191721472169689</v>
+        <v>0.4048695310815162</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.02784089572565307</v>
+        <v>0.02439246536702555</v>
       </c>
       <c r="J24">
-        <v>0.2535183478013181</v>
+        <v>0.268117477874469</v>
       </c>
       <c r="K24">
-        <v>0.1380583169049032</v>
+        <v>0.1263991098478954</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08864547313125293</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03307571734136339</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8524258822628923</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.372067118766779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9112747994913946</v>
+      </c>
+      <c r="S24">
+        <v>1.284084357916782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.684327615265488</v>
+        <v>2.610466067105506</v>
       </c>
       <c r="C25">
-        <v>0.8753215341616567</v>
+        <v>0.917486139417889</v>
       </c>
       <c r="D25">
-        <v>0.05723907167308795</v>
+        <v>0.06060823360518697</v>
       </c>
       <c r="E25">
-        <v>1.731607782331153</v>
+        <v>1.726878042323946</v>
       </c>
       <c r="F25">
-        <v>0.4648498696215455</v>
+        <v>0.4460796819894099</v>
       </c>
       <c r="G25">
-        <v>0.3487700122148993</v>
+        <v>0.3306028049964738</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.02025338846668578</v>
+        <v>0.01810728168717013</v>
       </c>
       <c r="J25">
-        <v>0.2298413335269487</v>
+        <v>0.2593057083568056</v>
       </c>
       <c r="K25">
-        <v>0.1366472076315866</v>
+        <v>0.1290603155210626</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09709092589479695</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0235977376258738</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8142229991758256</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.172641080169313</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8563485664467834</v>
+      </c>
+      <c r="S25">
+        <v>1.116610903605277</v>
       </c>
     </row>
   </sheetData>
